--- a/p_arrs/p_arr_10_row_20_20_5_col_2_lp_3_vol_classes.xlsx
+++ b/p_arrs/p_arr_10_row_20_20_5_col_2_lp_3_vol_classes.xlsx
@@ -8316,7 +8316,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -8324,7 +8324,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -8332,7 +8332,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -8348,7 +8348,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8396,7 +8396,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,7 +8404,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8444,7 +8444,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8452,7 +8452,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8468,7 +8468,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
@@ -8476,7 +8476,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -8484,7 +8484,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
@@ -8508,7 +8508,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -8516,7 +8516,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -8636,7 +8636,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45">
@@ -8644,7 +8644,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
@@ -8652,7 +8652,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
@@ -8668,7 +8668,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49">
@@ -8676,7 +8676,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
@@ -8684,7 +8684,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
@@ -8692,7 +8692,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
@@ -8804,7 +8804,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66">
@@ -8812,7 +8812,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="67">
@@ -8820,7 +8820,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="68">
@@ -8828,7 +8828,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69">
@@ -8836,7 +8836,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="70">
@@ -8844,7 +8844,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71">
@@ -8852,7 +8852,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72">
@@ -8860,7 +8860,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73">
@@ -8868,7 +8868,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
@@ -8972,7 +8972,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87">
@@ -8980,7 +8980,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88">
@@ -8988,7 +8988,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89">
@@ -8996,7 +8996,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="90">
@@ -9004,7 +9004,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91">
@@ -9012,7 +9012,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="92">
@@ -9020,7 +9020,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93">
@@ -9028,7 +9028,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94">
@@ -9036,7 +9036,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95">
@@ -9044,7 +9044,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96">
@@ -9148,7 +9148,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="109">
@@ -9156,7 +9156,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="110">
@@ -9164,7 +9164,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="111">
@@ -9172,7 +9172,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="112">
@@ -9180,7 +9180,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="113">
@@ -9188,7 +9188,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="114">
@@ -9196,7 +9196,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="115">
@@ -9204,7 +9204,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="116">
@@ -9212,7 +9212,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="117">
@@ -9308,7 +9308,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -9316,7 +9316,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130">
@@ -9324,7 +9324,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="131">
@@ -9332,7 +9332,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="132">
@@ -9340,7 +9340,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="133">
@@ -9348,7 +9348,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="134">
@@ -9372,7 +9372,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="137">
@@ -9380,7 +9380,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="138">
@@ -9388,7 +9388,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="139">
@@ -9404,7 +9404,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9412,7 +9412,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -9452,7 +9452,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -9460,7 +9460,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -9492,7 +9492,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152">
@@ -9516,7 +9516,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="155">
@@ -9524,7 +9524,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="156">
@@ -9532,7 +9532,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="157">
@@ -9540,7 +9540,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="158">
@@ -9596,7 +9596,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -9604,7 +9604,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -9668,7 +9668,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="174">
@@ -9676,7 +9676,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="175">
@@ -9684,7 +9684,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="176">
@@ -9692,7 +9692,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="177">
@@ -9700,7 +9700,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="178">
@@ -9708,7 +9708,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="179">
@@ -9716,7 +9716,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="180">
@@ -9724,7 +9724,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="181">
@@ -9732,7 +9732,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="182">
@@ -9844,7 +9844,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="196">
@@ -9852,7 +9852,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="197">
@@ -9860,7 +9860,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="198">
@@ -9868,7 +9868,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="199">
@@ -9876,7 +9876,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="200">
@@ -9884,7 +9884,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="201">
@@ -9892,7 +9892,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="202">
@@ -9900,7 +9900,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="203">
@@ -10028,7 +10028,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219">
@@ -10036,7 +10036,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="220">
@@ -10044,7 +10044,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="221">
@@ -10052,7 +10052,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="222">
@@ -10060,7 +10060,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="223">
@@ -10068,7 +10068,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="224">
@@ -10212,7 +10212,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="242">
@@ -10220,7 +10220,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="243">
@@ -10228,7 +10228,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="244">
@@ -10236,7 +10236,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="245">
@@ -10244,7 +10244,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="246">
@@ -10316,7 +10316,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -10324,7 +10324,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -10364,7 +10364,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -10372,7 +10372,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -10404,7 +10404,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="266">
@@ -10420,7 +10420,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -10460,7 +10460,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -10468,7 +10468,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -10476,7 +10476,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -10508,7 +10508,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -10516,7 +10516,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -10524,7 +10524,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -10556,7 +10556,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -10564,7 +10564,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -10572,7 +10572,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -10604,7 +10604,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -10612,7 +10612,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -10620,7 +10620,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -10652,7 +10652,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -10660,7 +10660,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -10668,7 +10668,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -11324,7 +11324,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -11332,7 +11332,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -11372,7 +11372,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -11380,7 +11380,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -11420,7 +11420,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -11428,7 +11428,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -11436,7 +11436,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -11468,7 +11468,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -11476,7 +11476,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -11484,7 +11484,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -11516,7 +11516,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -11524,7 +11524,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -11532,7 +11532,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -11564,7 +11564,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -11572,7 +11572,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -11580,7 +11580,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -11612,7 +11612,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -11620,7 +11620,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -11628,7 +11628,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -11660,7 +11660,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -11668,7 +11668,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -11676,7 +11676,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -11708,7 +11708,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -11716,7 +11716,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -11724,7 +11724,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -11764,7 +11764,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -11772,7 +11772,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -11828,7 +11828,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="444">
@@ -11844,7 +11844,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="446">
@@ -11852,7 +11852,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="447">
@@ -11860,7 +11860,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="448">
@@ -12004,7 +12004,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="466">
@@ -12012,7 +12012,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="467">
@@ -12020,7 +12020,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="468">
@@ -12028,7 +12028,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="469">
@@ -12036,7 +12036,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="470">
@@ -12044,7 +12044,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="471">
@@ -12164,7 +12164,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="486">
@@ -12172,7 +12172,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="487">
@@ -12180,7 +12180,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="488">
@@ -12188,7 +12188,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="489">
@@ -12196,7 +12196,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="490">
@@ -12204,7 +12204,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="491">
@@ -12212,7 +12212,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="492">
@@ -12220,7 +12220,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="493">
@@ -12348,7 +12348,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="509">
@@ -12356,7 +12356,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="510">
@@ -12364,7 +12364,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="511">
@@ -12372,7 +12372,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="512">
@@ -12396,7 +12396,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="515">
@@ -12404,7 +12404,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="516">
@@ -12428,7 +12428,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -12436,7 +12436,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -12444,7 +12444,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -12476,7 +12476,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -12484,7 +12484,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -12492,7 +12492,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -12500,7 +12500,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="528">
@@ -12508,7 +12508,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="529">
@@ -12516,7 +12516,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="530">
@@ -12548,7 +12548,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="534">
@@ -12556,7 +12556,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="535">
@@ -12564,7 +12564,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="536">
@@ -12580,7 +12580,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -12588,7 +12588,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -12596,7 +12596,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -12620,7 +12620,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -12628,7 +12628,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -12636,7 +12636,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -12644,7 +12644,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -12668,7 +12668,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -12700,7 +12700,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="553">
@@ -12708,7 +12708,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="554">
@@ -12748,7 +12748,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="559">
@@ -12764,7 +12764,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -12772,7 +12772,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -12780,7 +12780,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -12828,7 +12828,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -12844,7 +12844,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="571">
@@ -12852,7 +12852,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="572">
@@ -12860,7 +12860,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="573">
@@ -12868,7 +12868,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="574">
@@ -12876,7 +12876,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="575">
@@ -12884,7 +12884,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="576">
@@ -12892,7 +12892,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="577">
@@ -12900,7 +12900,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="578">
@@ -12908,7 +12908,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="579">
@@ -12916,7 +12916,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="580">
@@ -12924,7 +12924,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="581">
@@ -13020,7 +13020,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="593">
@@ -13028,7 +13028,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="594">
@@ -13036,7 +13036,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="595">
@@ -13044,7 +13044,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="596">
@@ -13052,7 +13052,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="597">
@@ -13060,7 +13060,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="598">
@@ -13068,7 +13068,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="599">
@@ -13076,7 +13076,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="600">
@@ -13084,7 +13084,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="601">
@@ -13092,7 +13092,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="602">
@@ -13100,7 +13100,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="603">
@@ -13196,7 +13196,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="615">
@@ -13204,7 +13204,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="616">
@@ -13212,7 +13212,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="617">
@@ -13220,7 +13220,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="618">
@@ -13228,7 +13228,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="619">
@@ -13236,7 +13236,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="620">
@@ -13244,7 +13244,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="621">
@@ -13252,7 +13252,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="622">
@@ -13260,7 +13260,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="623">
@@ -13268,7 +13268,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="624">
@@ -13364,7 +13364,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="636">
@@ -13372,7 +13372,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="637">
@@ -13380,7 +13380,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="638">
@@ -13404,7 +13404,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="641">
@@ -13412,7 +13412,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="642">
@@ -13420,7 +13420,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="643">
@@ -13428,7 +13428,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="644">
@@ -13452,7 +13452,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -13484,7 +13484,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -13492,7 +13492,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -13500,7 +13500,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -13532,7 +13532,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -13540,7 +13540,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -13564,7 +13564,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="661">
@@ -13572,7 +13572,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="662">
@@ -13612,7 +13612,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="667">
@@ -13628,7 +13628,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -13636,7 +13636,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -13644,7 +13644,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -13652,7 +13652,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -13676,7 +13676,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -13684,7 +13684,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -13692,7 +13692,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -13700,7 +13700,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -13756,7 +13756,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="685">
@@ -13764,7 +13764,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="686">
@@ -13796,7 +13796,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -13828,7 +13828,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -13836,7 +13836,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -13844,7 +13844,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -13884,7 +13884,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -13892,7 +13892,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -13900,7 +13900,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="703">
@@ -13908,7 +13908,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="704">
@@ -13916,7 +13916,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="705">
@@ -13924,7 +13924,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="706">
@@ -13932,7 +13932,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="707">
@@ -13940,7 +13940,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="708">
@@ -13948,7 +13948,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="709">
@@ -13956,7 +13956,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="710">
@@ -14084,7 +14084,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="726">
@@ -14092,7 +14092,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="727">
@@ -14100,7 +14100,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="728">
@@ -14108,7 +14108,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="729">
@@ -14116,7 +14116,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="730">
@@ -14124,7 +14124,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="731">
@@ -14268,7 +14268,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="749">
@@ -14276,7 +14276,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="750">
@@ -14284,7 +14284,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="751">
@@ -14396,7 +14396,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -14404,7 +14404,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -14444,7 +14444,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -14452,7 +14452,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -14460,7 +14460,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -14492,7 +14492,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -14500,7 +14500,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -14508,7 +14508,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -14540,7 +14540,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -14548,7 +14548,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -14556,7 +14556,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -14564,7 +14564,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -14588,7 +14588,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -14596,7 +14596,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -14604,7 +14604,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -14612,7 +14612,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -14636,7 +14636,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -14644,7 +14644,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -14652,7 +14652,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -14660,7 +14660,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -14684,7 +14684,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -14692,7 +14692,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -14700,7 +14700,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -14708,7 +14708,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -14716,7 +14716,7 @@
         <v>804</v>
       </c>
       <c r="B804" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -14732,7 +14732,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -14740,7 +14740,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -14748,7 +14748,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -14756,7 +14756,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -14764,7 +14764,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -14780,7 +14780,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -14788,7 +14788,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -14796,7 +14796,7 @@
         <v>814</v>
       </c>
       <c r="B814" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -14804,7 +14804,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -14812,7 +14812,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -14828,7 +14828,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -14836,7 +14836,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -14844,7 +14844,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -14852,7 +14852,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -14884,7 +14884,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -14892,7 +14892,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -14900,7 +14900,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -14940,7 +14940,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -14948,7 +14948,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -15452,7 +15452,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -15460,7 +15460,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -15468,7 +15468,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -15500,7 +15500,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -15508,7 +15508,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -15516,7 +15516,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -15548,7 +15548,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -15556,7 +15556,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
@@ -15564,7 +15564,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -15572,7 +15572,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912">
@@ -15596,7 +15596,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -15604,7 +15604,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -15612,7 +15612,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -15620,7 +15620,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -15644,7 +15644,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -15652,7 +15652,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922">
@@ -15660,7 +15660,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923">
@@ -15668,7 +15668,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -15676,7 +15676,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -15692,7 +15692,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -15700,7 +15700,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -15708,7 +15708,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -15732,7 +15732,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="932">
@@ -15756,7 +15756,7 @@
         <v>934</v>
       </c>
       <c r="B934" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
@@ -15764,7 +15764,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -15772,7 +15772,7 @@
         <v>936</v>
       </c>
       <c r="B936" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -15788,7 +15788,7 @@
         <v>938</v>
       </c>
       <c r="B938" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -15796,7 +15796,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940">
@@ -15804,7 +15804,7 @@
         <v>940</v>
       </c>
       <c r="B940" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -15812,7 +15812,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -15820,7 +15820,7 @@
         <v>942</v>
       </c>
       <c r="B942" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -15836,7 +15836,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -15844,7 +15844,7 @@
         <v>945</v>
       </c>
       <c r="B945" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -15852,7 +15852,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -15860,7 +15860,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948">
@@ -15868,7 +15868,7 @@
         <v>948</v>
       </c>
       <c r="B948" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -15876,7 +15876,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="950">
@@ -15884,7 +15884,7 @@
         <v>950</v>
       </c>
       <c r="B950" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="951">
@@ -15924,7 +15924,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="956">
@@ -15932,7 +15932,7 @@
         <v>956</v>
       </c>
       <c r="B956" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="957">
@@ -15940,7 +15940,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -15948,7 +15948,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -15956,7 +15956,7 @@
         <v>959</v>
       </c>
       <c r="B959" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -15996,7 +15996,7 @@
         <v>964</v>
       </c>
       <c r="B964" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -16004,7 +16004,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -16044,7 +16044,7 @@
         <v>970</v>
       </c>
       <c r="B970" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="971">
@@ -16052,7 +16052,7 @@
         <v>971</v>
       </c>
       <c r="B971" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="972">
@@ -16060,7 +16060,7 @@
         <v>972</v>
       </c>
       <c r="B972" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="973">
@@ -16068,7 +16068,7 @@
         <v>973</v>
       </c>
       <c r="B973" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="974">
@@ -16076,7 +16076,7 @@
         <v>974</v>
       </c>
       <c r="B974" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="975">
@@ -16084,7 +16084,7 @@
         <v>975</v>
       </c>
       <c r="B975" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="976">
@@ -16092,7 +16092,7 @@
         <v>976</v>
       </c>
       <c r="B976" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="977">
@@ -16100,7 +16100,7 @@
         <v>977</v>
       </c>
       <c r="B977" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="978">
@@ -16108,7 +16108,7 @@
         <v>978</v>
       </c>
       <c r="B978" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="979">
@@ -16212,7 +16212,7 @@
         <v>991</v>
       </c>
       <c r="B991" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="992">
@@ -16220,7 +16220,7 @@
         <v>992</v>
       </c>
       <c r="B992" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="993">
@@ -16228,7 +16228,7 @@
         <v>993</v>
       </c>
       <c r="B993" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="994">
@@ -16236,7 +16236,7 @@
         <v>994</v>
       </c>
       <c r="B994" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="995">
@@ -16244,7 +16244,7 @@
         <v>995</v>
       </c>
       <c r="B995" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="996">
@@ -16252,7 +16252,7 @@
         <v>996</v>
       </c>
       <c r="B996" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="997">
@@ -16260,7 +16260,7 @@
         <v>997</v>
       </c>
       <c r="B997" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="998">
@@ -16268,7 +16268,7 @@
         <v>998</v>
       </c>
       <c r="B998" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="999">
@@ -16276,7 +16276,7 @@
         <v>999</v>
       </c>
       <c r="B999" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1000">
@@ -16284,7 +16284,7 @@
         <v>1000</v>
       </c>
       <c r="B1000" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1001">
@@ -16380,7 +16380,7 @@
         <v>1012</v>
       </c>
       <c r="B1012" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1013">
@@ -16388,7 +16388,7 @@
         <v>1013</v>
       </c>
       <c r="B1013" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1014">
@@ -16396,7 +16396,7 @@
         <v>1014</v>
       </c>
       <c r="B1014" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1015">
@@ -16404,7 +16404,7 @@
         <v>1015</v>
       </c>
       <c r="B1015" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1016">
@@ -16412,7 +16412,7 @@
         <v>1016</v>
       </c>
       <c r="B1016" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1017">
@@ -16420,7 +16420,7 @@
         <v>1017</v>
       </c>
       <c r="B1017" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1018">
@@ -16428,7 +16428,7 @@
         <v>1018</v>
       </c>
       <c r="B1018" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1019">
@@ -16436,7 +16436,7 @@
         <v>1019</v>
       </c>
       <c r="B1019" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1020">
@@ -16444,7 +16444,7 @@
         <v>1020</v>
       </c>
       <c r="B1020" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1021">
@@ -16452,7 +16452,7 @@
         <v>1021</v>
       </c>
       <c r="B1021" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1022">
@@ -16460,7 +16460,7 @@
         <v>1022</v>
       </c>
       <c r="B1022" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1023">
@@ -16508,7 +16508,7 @@
         <v>1028</v>
       </c>
       <c r="B1028" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -16516,7 +16516,7 @@
         <v>1029</v>
       </c>
       <c r="B1029" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -16524,7 +16524,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -16548,7 +16548,7 @@
         <v>1033</v>
       </c>
       <c r="B1033" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1034">
@@ -16588,7 +16588,7 @@
         <v>1038</v>
       </c>
       <c r="B1038" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1039">
@@ -16596,7 +16596,7 @@
         <v>1039</v>
       </c>
       <c r="B1039" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1040">
@@ -16636,7 +16636,7 @@
         <v>1044</v>
       </c>
       <c r="B1044" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1045">
@@ -16652,7 +16652,7 @@
         <v>1046</v>
       </c>
       <c r="B1046" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
@@ -16660,7 +16660,7 @@
         <v>1047</v>
       </c>
       <c r="B1047" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -16668,7 +16668,7 @@
         <v>1048</v>
       </c>
       <c r="B1048" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -16676,7 +16676,7 @@
         <v>1049</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -16684,7 +16684,7 @@
         <v>1050</v>
       </c>
       <c r="B1050" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -16700,7 +16700,7 @@
         <v>1052</v>
       </c>
       <c r="B1052" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -16708,7 +16708,7 @@
         <v>1053</v>
       </c>
       <c r="B1053" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -16716,7 +16716,7 @@
         <v>1054</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055">
@@ -16740,7 +16740,7 @@
         <v>1057</v>
       </c>
       <c r="B1057" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1058">
@@ -16820,7 +16820,7 @@
         <v>1067</v>
       </c>
       <c r="B1067" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -16828,7 +16828,7 @@
         <v>1068</v>
       </c>
       <c r="B1068" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069">
@@ -16836,7 +16836,7 @@
         <v>1069</v>
       </c>
       <c r="B1069" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -16844,7 +16844,7 @@
         <v>1070</v>
       </c>
       <c r="B1070" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -16852,7 +16852,7 @@
         <v>1071</v>
       </c>
       <c r="B1071" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -16860,7 +16860,7 @@
         <v>1072</v>
       </c>
       <c r="B1072" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -16868,7 +16868,7 @@
         <v>1073</v>
       </c>
       <c r="B1073" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -16876,7 +16876,7 @@
         <v>1074</v>
       </c>
       <c r="B1074" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -16932,7 +16932,7 @@
         <v>1081</v>
       </c>
       <c r="B1081" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1082">
@@ -16940,7 +16940,7 @@
         <v>1082</v>
       </c>
       <c r="B1082" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1083">
@@ -16980,7 +16980,7 @@
         <v>1087</v>
       </c>
       <c r="B1087" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1088">
@@ -16988,7 +16988,7 @@
         <v>1088</v>
       </c>
       <c r="B1088" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1089">
@@ -17004,7 +17004,7 @@
         <v>1090</v>
       </c>
       <c r="B1090" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
@@ -17012,7 +17012,7 @@
         <v>1091</v>
       </c>
       <c r="B1091" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092">
@@ -17020,7 +17020,7 @@
         <v>1092</v>
       </c>
       <c r="B1092" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093">
@@ -17052,7 +17052,7 @@
         <v>1096</v>
       </c>
       <c r="B1096" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -17060,7 +17060,7 @@
         <v>1097</v>
       </c>
       <c r="B1097" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098">
@@ -17068,7 +17068,7 @@
         <v>1098</v>
       </c>
       <c r="B1098" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1099">
@@ -17076,7 +17076,7 @@
         <v>1099</v>
       </c>
       <c r="B1099" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1100">
@@ -17084,7 +17084,7 @@
         <v>1100</v>
       </c>
       <c r="B1100" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1101">
@@ -17092,7 +17092,7 @@
         <v>1101</v>
       </c>
       <c r="B1101" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1102">
@@ -17100,7 +17100,7 @@
         <v>1102</v>
       </c>
       <c r="B1102" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1103">
@@ -17108,7 +17108,7 @@
         <v>1103</v>
       </c>
       <c r="B1103" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1104">
@@ -17116,7 +17116,7 @@
         <v>1104</v>
       </c>
       <c r="B1104" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1105">
@@ -17124,7 +17124,7 @@
         <v>1105</v>
       </c>
       <c r="B1105" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1106">
@@ -17132,7 +17132,7 @@
         <v>1106</v>
       </c>
       <c r="B1106" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1107">
@@ -17140,7 +17140,7 @@
         <v>1107</v>
       </c>
       <c r="B1107" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1108">
@@ -17148,7 +17148,7 @@
         <v>1108</v>
       </c>
       <c r="B1108" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1109">
@@ -17156,7 +17156,7 @@
         <v>1109</v>
       </c>
       <c r="B1109" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1110">
@@ -17244,7 +17244,7 @@
         <v>1120</v>
       </c>
       <c r="B1120" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1121">
@@ -17252,7 +17252,7 @@
         <v>1121</v>
       </c>
       <c r="B1121" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1122">
@@ -17260,7 +17260,7 @@
         <v>1122</v>
       </c>
       <c r="B1122" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1123">
@@ -17268,7 +17268,7 @@
         <v>1123</v>
       </c>
       <c r="B1123" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1124">
@@ -17276,7 +17276,7 @@
         <v>1124</v>
       </c>
       <c r="B1124" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1125">
@@ -17284,7 +17284,7 @@
         <v>1125</v>
       </c>
       <c r="B1125" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1126">
@@ -17292,7 +17292,7 @@
         <v>1126</v>
       </c>
       <c r="B1126" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1127">
@@ -17300,7 +17300,7 @@
         <v>1127</v>
       </c>
       <c r="B1127" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1128">
@@ -17308,7 +17308,7 @@
         <v>1128</v>
       </c>
       <c r="B1128" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1129">
@@ -17316,7 +17316,7 @@
         <v>1129</v>
       </c>
       <c r="B1129" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1130">
@@ -17324,7 +17324,7 @@
         <v>1130</v>
       </c>
       <c r="B1130" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1131">
@@ -17420,7 +17420,7 @@
         <v>1142</v>
       </c>
       <c r="B1142" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1143">
@@ -17428,7 +17428,7 @@
         <v>1143</v>
       </c>
       <c r="B1143" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1144">
@@ -17436,7 +17436,7 @@
         <v>1144</v>
       </c>
       <c r="B1144" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1145">
@@ -17444,7 +17444,7 @@
         <v>1145</v>
       </c>
       <c r="B1145" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1146">
@@ -17452,7 +17452,7 @@
         <v>1146</v>
       </c>
       <c r="B1146" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1147">
@@ -17460,7 +17460,7 @@
         <v>1147</v>
       </c>
       <c r="B1147" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1148">
@@ -17468,7 +17468,7 @@
         <v>1148</v>
       </c>
       <c r="B1148" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1149">
@@ -17476,7 +17476,7 @@
         <v>1149</v>
       </c>
       <c r="B1149" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1150">
@@ -17484,7 +17484,7 @@
         <v>1150</v>
       </c>
       <c r="B1150" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1151">
@@ -17492,7 +17492,7 @@
         <v>1151</v>
       </c>
       <c r="B1151" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1152">
@@ -17500,7 +17500,7 @@
         <v>1152</v>
       </c>
       <c r="B1152" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1153">
@@ -17524,7 +17524,7 @@
         <v>1155</v>
       </c>
       <c r="B1155" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156">
@@ -17532,7 +17532,7 @@
         <v>1156</v>
       </c>
       <c r="B1156" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -17564,7 +17564,7 @@
         <v>1160</v>
       </c>
       <c r="B1160" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -17572,7 +17572,7 @@
         <v>1161</v>
       </c>
       <c r="B1161" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -17580,7 +17580,7 @@
         <v>1162</v>
       </c>
       <c r="B1162" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -17596,7 +17596,7 @@
         <v>1164</v>
       </c>
       <c r="B1164" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1165">
@@ -17604,7 +17604,7 @@
         <v>1165</v>
       </c>
       <c r="B1165" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1166">
@@ -17644,7 +17644,7 @@
         <v>1170</v>
       </c>
       <c r="B1170" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1171">
@@ -17652,7 +17652,7 @@
         <v>1171</v>
       </c>
       <c r="B1171" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1172">
@@ -17676,7 +17676,7 @@
         <v>1174</v>
       </c>
       <c r="B1174" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -17684,7 +17684,7 @@
         <v>1175</v>
       </c>
       <c r="B1175" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -17692,7 +17692,7 @@
         <v>1176</v>
       </c>
       <c r="B1176" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -17708,7 +17708,7 @@
         <v>1178</v>
       </c>
       <c r="B1178" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
@@ -17716,7 +17716,7 @@
         <v>1179</v>
       </c>
       <c r="B1179" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180">
@@ -17724,7 +17724,7 @@
         <v>1180</v>
       </c>
       <c r="B1180" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181">
@@ -17732,7 +17732,7 @@
         <v>1181</v>
       </c>
       <c r="B1181" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -17740,7 +17740,7 @@
         <v>1182</v>
       </c>
       <c r="B1182" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -17756,7 +17756,7 @@
         <v>1184</v>
       </c>
       <c r="B1184" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -17764,7 +17764,7 @@
         <v>1185</v>
       </c>
       <c r="B1185" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186">
@@ -17844,7 +17844,7 @@
         <v>1195</v>
       </c>
       <c r="B1195" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -17852,7 +17852,7 @@
         <v>1196</v>
       </c>
       <c r="B1196" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -17860,7 +17860,7 @@
         <v>1197</v>
       </c>
       <c r="B1197" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -17868,7 +17868,7 @@
         <v>1198</v>
       </c>
       <c r="B1198" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199">
@@ -17876,7 +17876,7 @@
         <v>1199</v>
       </c>
       <c r="B1199" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -17884,7 +17884,7 @@
         <v>1200</v>
       </c>
       <c r="B1200" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
@@ -17892,7 +17892,7 @@
         <v>1201</v>
       </c>
       <c r="B1201" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -17900,7 +17900,7 @@
         <v>1202</v>
       </c>
       <c r="B1202" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -17908,7 +17908,7 @@
         <v>1203</v>
       </c>
       <c r="B1203" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -17916,7 +17916,7 @@
         <v>1204</v>
       </c>
       <c r="B1204" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -17924,7 +17924,7 @@
         <v>1205</v>
       </c>
       <c r="B1205" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -17932,7 +17932,7 @@
         <v>1206</v>
       </c>
       <c r="B1206" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -17940,7 +17940,7 @@
         <v>1207</v>
       </c>
       <c r="B1207" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -17948,7 +17948,7 @@
         <v>1208</v>
       </c>
       <c r="B1208" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1209">
@@ -17996,7 +17996,7 @@
         <v>1214</v>
       </c>
       <c r="B1214" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1215">
@@ -18012,7 +18012,7 @@
         <v>1216</v>
       </c>
       <c r="B1216" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -18020,7 +18020,7 @@
         <v>1217</v>
       </c>
       <c r="B1217" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218">
@@ -18028,7 +18028,7 @@
         <v>1218</v>
       </c>
       <c r="B1218" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -18060,7 +18060,7 @@
         <v>1222</v>
       </c>
       <c r="B1222" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -18068,7 +18068,7 @@
         <v>1223</v>
       </c>
       <c r="B1223" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -18076,7 +18076,7 @@
         <v>1224</v>
       </c>
       <c r="B1224" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -18108,7 +18108,7 @@
         <v>1228</v>
       </c>
       <c r="B1228" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229">
@@ -18116,7 +18116,7 @@
         <v>1229</v>
       </c>
       <c r="B1229" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230">
@@ -18140,7 +18140,7 @@
         <v>1232</v>
       </c>
       <c r="B1232" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1233">
@@ -18148,7 +18148,7 @@
         <v>1233</v>
       </c>
       <c r="B1233" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1234">
@@ -18156,7 +18156,7 @@
         <v>1234</v>
       </c>
       <c r="B1234" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1235">
@@ -18164,7 +18164,7 @@
         <v>1235</v>
       </c>
       <c r="B1235" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1236">
@@ -18588,7 +18588,7 @@
         <v>1288</v>
       </c>
       <c r="B1288" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
@@ -18628,7 +18628,7 @@
         <v>1293</v>
       </c>
       <c r="B1293" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -18636,7 +18636,7 @@
         <v>1294</v>
       </c>
       <c r="B1294" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -18644,7 +18644,7 @@
         <v>1295</v>
       </c>
       <c r="B1295" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -18668,7 +18668,7 @@
         <v>1298</v>
       </c>
       <c r="B1298" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -18676,7 +18676,7 @@
         <v>1299</v>
       </c>
       <c r="B1299" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -18684,7 +18684,7 @@
         <v>1300</v>
       </c>
       <c r="B1300" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -18692,7 +18692,7 @@
         <v>1301</v>
       </c>
       <c r="B1301" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -18716,7 +18716,7 @@
         <v>1304</v>
       </c>
       <c r="B1304" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305">
@@ -18724,7 +18724,7 @@
         <v>1305</v>
       </c>
       <c r="B1305" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306">
@@ -18732,7 +18732,7 @@
         <v>1306</v>
       </c>
       <c r="B1306" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -18740,7 +18740,7 @@
         <v>1307</v>
       </c>
       <c r="B1307" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -18748,7 +18748,7 @@
         <v>1308</v>
       </c>
       <c r="B1308" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -18764,7 +18764,7 @@
         <v>1310</v>
       </c>
       <c r="B1310" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311">
@@ -18772,7 +18772,7 @@
         <v>1311</v>
       </c>
       <c r="B1311" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312">
@@ -18780,7 +18780,7 @@
         <v>1312</v>
       </c>
       <c r="B1312" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -18788,7 +18788,7 @@
         <v>1313</v>
       </c>
       <c r="B1313" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -18796,7 +18796,7 @@
         <v>1314</v>
       </c>
       <c r="B1314" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -18812,7 +18812,7 @@
         <v>1316</v>
       </c>
       <c r="B1316" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317">
@@ -18820,7 +18820,7 @@
         <v>1317</v>
       </c>
       <c r="B1317" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -18828,7 +18828,7 @@
         <v>1318</v>
       </c>
       <c r="B1318" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -18836,7 +18836,7 @@
         <v>1319</v>
       </c>
       <c r="B1319" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320">
@@ -18844,7 +18844,7 @@
         <v>1320</v>
       </c>
       <c r="B1320" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -18852,7 +18852,7 @@
         <v>1321</v>
       </c>
       <c r="B1321" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322">
@@ -18860,7 +18860,7 @@
         <v>1322</v>
       </c>
       <c r="B1322" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -18868,7 +18868,7 @@
         <v>1323</v>
       </c>
       <c r="B1323" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324">
@@ -18876,7 +18876,7 @@
         <v>1324</v>
       </c>
       <c r="B1324" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -18884,7 +18884,7 @@
         <v>1325</v>
       </c>
       <c r="B1325" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -18892,7 +18892,7 @@
         <v>1326</v>
       </c>
       <c r="B1326" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -18900,7 +18900,7 @@
         <v>1327</v>
       </c>
       <c r="B1327" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -18908,7 +18908,7 @@
         <v>1328</v>
       </c>
       <c r="B1328" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -18916,7 +18916,7 @@
         <v>1329</v>
       </c>
       <c r="B1329" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -18924,7 +18924,7 @@
         <v>1330</v>
       </c>
       <c r="B1330" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -18932,7 +18932,7 @@
         <v>1331</v>
       </c>
       <c r="B1331" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -18940,7 +18940,7 @@
         <v>1332</v>
       </c>
       <c r="B1332" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -18948,7 +18948,7 @@
         <v>1333</v>
       </c>
       <c r="B1333" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -18964,7 +18964,7 @@
         <v>1335</v>
       </c>
       <c r="B1335" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -18972,7 +18972,7 @@
         <v>1336</v>
       </c>
       <c r="B1336" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -18980,7 +18980,7 @@
         <v>1337</v>
       </c>
       <c r="B1337" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -18988,7 +18988,7 @@
         <v>1338</v>
       </c>
       <c r="B1338" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
@@ -18996,7 +18996,7 @@
         <v>1339</v>
       </c>
       <c r="B1339" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -19012,7 +19012,7 @@
         <v>1341</v>
       </c>
       <c r="B1341" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342">
@@ -19020,7 +19020,7 @@
         <v>1342</v>
       </c>
       <c r="B1342" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -19028,7 +19028,7 @@
         <v>1343</v>
       </c>
       <c r="B1343" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -19036,7 +19036,7 @@
         <v>1344</v>
       </c>
       <c r="B1344" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345">
@@ -19044,7 +19044,7 @@
         <v>1345</v>
       </c>
       <c r="B1345" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -19068,7 +19068,7 @@
         <v>1348</v>
       </c>
       <c r="B1348" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -19076,7 +19076,7 @@
         <v>1349</v>
       </c>
       <c r="B1349" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350">
@@ -19084,7 +19084,7 @@
         <v>1350</v>
       </c>
       <c r="B1350" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -19092,7 +19092,7 @@
         <v>1351</v>
       </c>
       <c r="B1351" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352">
@@ -19116,7 +19116,7 @@
         <v>1354</v>
       </c>
       <c r="B1354" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -19124,7 +19124,7 @@
         <v>1355</v>
       </c>
       <c r="B1355" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1356">
@@ -19132,7 +19132,7 @@
         <v>1356</v>
       </c>
       <c r="B1356" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357">
@@ -19172,7 +19172,7 @@
         <v>1361</v>
       </c>
       <c r="B1361" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362">
@@ -19596,7 +19596,7 @@
         <v>1414</v>
       </c>
       <c r="B1414" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1415">
@@ -19604,7 +19604,7 @@
         <v>1415</v>
       </c>
       <c r="B1415" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1416">
@@ -19612,7 +19612,7 @@
         <v>1416</v>
       </c>
       <c r="B1416" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1417">
@@ -19620,7 +19620,7 @@
         <v>1417</v>
       </c>
       <c r="B1417" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1418">
@@ -19644,7 +19644,7 @@
         <v>1420</v>
       </c>
       <c r="B1420" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -19652,7 +19652,7 @@
         <v>1421</v>
       </c>
       <c r="B1421" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422">
@@ -19684,7 +19684,7 @@
         <v>1425</v>
       </c>
       <c r="B1425" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426">
@@ -19692,7 +19692,7 @@
         <v>1426</v>
       </c>
       <c r="B1426" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427">
@@ -19700,7 +19700,7 @@
         <v>1427</v>
       </c>
       <c r="B1427" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428">
@@ -19732,7 +19732,7 @@
         <v>1431</v>
       </c>
       <c r="B1431" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432">
@@ -19740,7 +19740,7 @@
         <v>1432</v>
       </c>
       <c r="B1432" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433">
@@ -19748,7 +19748,7 @@
         <v>1433</v>
       </c>
       <c r="B1433" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434">
@@ -19764,7 +19764,7 @@
         <v>1435</v>
       </c>
       <c r="B1435" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1436">
@@ -19812,7 +19812,7 @@
         <v>1441</v>
       </c>
       <c r="B1441" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1442">
@@ -19820,7 +19820,7 @@
         <v>1442</v>
       </c>
       <c r="B1442" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443">
@@ -19828,7 +19828,7 @@
         <v>1443</v>
       </c>
       <c r="B1443" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444">
@@ -19836,7 +19836,7 @@
         <v>1444</v>
       </c>
       <c r="B1444" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445">
@@ -19844,7 +19844,7 @@
         <v>1445</v>
       </c>
       <c r="B1445" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446">
@@ -19852,7 +19852,7 @@
         <v>1446</v>
       </c>
       <c r="B1446" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447">
@@ -19860,7 +19860,7 @@
         <v>1447</v>
       </c>
       <c r="B1447" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448">
@@ -19868,7 +19868,7 @@
         <v>1448</v>
       </c>
       <c r="B1448" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449">
@@ -19876,7 +19876,7 @@
         <v>1449</v>
       </c>
       <c r="B1449" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -19884,7 +19884,7 @@
         <v>1450</v>
       </c>
       <c r="B1450" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -19892,7 +19892,7 @@
         <v>1451</v>
       </c>
       <c r="B1451" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -19900,7 +19900,7 @@
         <v>1452</v>
       </c>
       <c r="B1452" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453">
@@ -19908,7 +19908,7 @@
         <v>1453</v>
       </c>
       <c r="B1453" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454">
@@ -19916,7 +19916,7 @@
         <v>1454</v>
       </c>
       <c r="B1454" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -19996,7 +19996,7 @@
         <v>1464</v>
       </c>
       <c r="B1464" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1465">
@@ -20004,7 +20004,7 @@
         <v>1465</v>
       </c>
       <c r="B1465" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466">
@@ -20020,7 +20020,7 @@
         <v>1467</v>
       </c>
       <c r="B1467" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1468">
@@ -20028,7 +20028,7 @@
         <v>1468</v>
       </c>
       <c r="B1468" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -20036,7 +20036,7 @@
         <v>1469</v>
       </c>
       <c r="B1469" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470">
@@ -20044,7 +20044,7 @@
         <v>1470</v>
       </c>
       <c r="B1470" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1471">
@@ -20052,7 +20052,7 @@
         <v>1471</v>
       </c>
       <c r="B1471" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -20068,7 +20068,7 @@
         <v>1473</v>
       </c>
       <c r="B1473" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474">
@@ -20076,7 +20076,7 @@
         <v>1474</v>
       </c>
       <c r="B1474" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1475">
@@ -20084,7 +20084,7 @@
         <v>1475</v>
       </c>
       <c r="B1475" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1476">
@@ -20108,7 +20108,7 @@
         <v>1478</v>
       </c>
       <c r="B1478" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1479">
@@ -20116,7 +20116,7 @@
         <v>1479</v>
       </c>
       <c r="B1479" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1480">
@@ -20156,7 +20156,7 @@
         <v>1484</v>
       </c>
       <c r="B1484" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1485">
@@ -20164,7 +20164,7 @@
         <v>1485</v>
       </c>
       <c r="B1485" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1486">
@@ -20180,7 +20180,7 @@
         <v>1487</v>
       </c>
       <c r="B1487" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488">
@@ -20188,7 +20188,7 @@
         <v>1488</v>
       </c>
       <c r="B1488" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489">
@@ -20196,7 +20196,7 @@
         <v>1489</v>
       </c>
       <c r="B1489" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490">
@@ -20228,7 +20228,7 @@
         <v>1493</v>
       </c>
       <c r="B1493" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -20236,7 +20236,7 @@
         <v>1494</v>
       </c>
       <c r="B1494" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495">
@@ -20260,7 +20260,7 @@
         <v>1497</v>
       </c>
       <c r="B1497" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1498">
@@ -20268,7 +20268,7 @@
         <v>1498</v>
       </c>
       <c r="B1498" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1499">
@@ -20276,7 +20276,7 @@
         <v>1499</v>
       </c>
       <c r="B1499" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1500">
@@ -20284,7 +20284,7 @@
         <v>1500</v>
       </c>
       <c r="B1500" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1501">
@@ -20292,7 +20292,7 @@
         <v>1501</v>
       </c>
       <c r="B1501" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1502">
@@ -20300,7 +20300,7 @@
         <v>1502</v>
       </c>
       <c r="B1502" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1503">
@@ -20308,7 +20308,7 @@
         <v>1503</v>
       </c>
       <c r="B1503" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1504">
@@ -20316,7 +20316,7 @@
         <v>1504</v>
       </c>
       <c r="B1504" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1505">
@@ -20324,7 +20324,7 @@
         <v>1505</v>
       </c>
       <c r="B1505" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1506">
@@ -20332,7 +20332,7 @@
         <v>1506</v>
       </c>
       <c r="B1506" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1507">
@@ -20340,7 +20340,7 @@
         <v>1507</v>
       </c>
       <c r="B1507" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1508">
@@ -20436,7 +20436,7 @@
         <v>1519</v>
       </c>
       <c r="B1519" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1520">
@@ -20444,7 +20444,7 @@
         <v>1520</v>
       </c>
       <c r="B1520" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1521">
@@ -20452,7 +20452,7 @@
         <v>1521</v>
       </c>
       <c r="B1521" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1522">
@@ -20460,7 +20460,7 @@
         <v>1522</v>
       </c>
       <c r="B1522" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1523">
@@ -20468,7 +20468,7 @@
         <v>1523</v>
       </c>
       <c r="B1523" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1524">
@@ -20476,7 +20476,7 @@
         <v>1524</v>
       </c>
       <c r="B1524" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1525">
@@ -20484,7 +20484,7 @@
         <v>1525</v>
       </c>
       <c r="B1525" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1526">
@@ -20492,7 +20492,7 @@
         <v>1526</v>
       </c>
       <c r="B1526" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1527">
@@ -20500,7 +20500,7 @@
         <v>1527</v>
       </c>
       <c r="B1527" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1528">
@@ -20508,7 +20508,7 @@
         <v>1528</v>
       </c>
       <c r="B1528" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1529">
@@ -20516,7 +20516,7 @@
         <v>1529</v>
       </c>
       <c r="B1529" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1530">
@@ -20604,7 +20604,7 @@
         <v>1540</v>
       </c>
       <c r="B1540" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1541">
@@ -20612,7 +20612,7 @@
         <v>1541</v>
       </c>
       <c r="B1541" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1542">
@@ -20620,7 +20620,7 @@
         <v>1542</v>
       </c>
       <c r="B1542" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1543">
@@ -20628,7 +20628,7 @@
         <v>1543</v>
       </c>
       <c r="B1543" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1544">
@@ -20636,7 +20636,7 @@
         <v>1544</v>
       </c>
       <c r="B1544" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1545">
@@ -20644,7 +20644,7 @@
         <v>1545</v>
       </c>
       <c r="B1545" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1546">
@@ -20652,7 +20652,7 @@
         <v>1546</v>
       </c>
       <c r="B1546" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1547">
@@ -20660,7 +20660,7 @@
         <v>1547</v>
       </c>
       <c r="B1547" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1548">
@@ -20668,7 +20668,7 @@
         <v>1548</v>
       </c>
       <c r="B1548" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1549">
@@ -20676,7 +20676,7 @@
         <v>1549</v>
       </c>
       <c r="B1549" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1550">
@@ -20684,7 +20684,7 @@
         <v>1550</v>
       </c>
       <c r="B1550" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1551">
@@ -20692,7 +20692,7 @@
         <v>1551</v>
       </c>
       <c r="B1551" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1552">
@@ -20700,7 +20700,7 @@
         <v>1552</v>
       </c>
       <c r="B1552" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553">
@@ -20708,7 +20708,7 @@
         <v>1553</v>
       </c>
       <c r="B1553" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554">
@@ -20740,7 +20740,7 @@
         <v>1557</v>
       </c>
       <c r="B1557" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1558">
@@ -20748,7 +20748,7 @@
         <v>1558</v>
       </c>
       <c r="B1558" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -20756,7 +20756,7 @@
         <v>1559</v>
       </c>
       <c r="B1559" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1560">
@@ -20772,7 +20772,7 @@
         <v>1561</v>
       </c>
       <c r="B1561" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1562">
@@ -20780,7 +20780,7 @@
         <v>1562</v>
       </c>
       <c r="B1562" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1563">
@@ -20820,7 +20820,7 @@
         <v>1567</v>
       </c>
       <c r="B1567" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1568">
@@ -20828,7 +20828,7 @@
         <v>1568</v>
       </c>
       <c r="B1568" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1569">
@@ -20884,7 +20884,7 @@
         <v>1575</v>
       </c>
       <c r="B1575" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576">
@@ -20892,7 +20892,7 @@
         <v>1576</v>
       </c>
       <c r="B1576" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577">
@@ -20900,7 +20900,7 @@
         <v>1577</v>
       </c>
       <c r="B1577" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578">
@@ -20908,7 +20908,7 @@
         <v>1578</v>
       </c>
       <c r="B1578" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579">
@@ -20916,7 +20916,7 @@
         <v>1579</v>
       </c>
       <c r="B1579" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -20924,7 +20924,7 @@
         <v>1580</v>
       </c>
       <c r="B1580" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581">
@@ -20932,7 +20932,7 @@
         <v>1581</v>
       </c>
       <c r="B1581" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582">
@@ -20940,7 +20940,7 @@
         <v>1582</v>
       </c>
       <c r="B1582" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583">
@@ -21020,7 +21020,7 @@
         <v>1592</v>
       </c>
       <c r="B1592" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1593">
@@ -21044,7 +21044,7 @@
         <v>1595</v>
       </c>
       <c r="B1595" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596">
@@ -21052,7 +21052,7 @@
         <v>1596</v>
       </c>
       <c r="B1596" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597">
@@ -21060,7 +21060,7 @@
         <v>1597</v>
       </c>
       <c r="B1597" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -21076,7 +21076,7 @@
         <v>1599</v>
       </c>
       <c r="B1599" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600">
@@ -21084,7 +21084,7 @@
         <v>1600</v>
       </c>
       <c r="B1600" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601">
@@ -21092,7 +21092,7 @@
         <v>1601</v>
       </c>
       <c r="B1601" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -21100,7 +21100,7 @@
         <v>1602</v>
       </c>
       <c r="B1602" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603">
@@ -21108,7 +21108,7 @@
         <v>1603</v>
       </c>
       <c r="B1603" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1604">
@@ -21124,7 +21124,7 @@
         <v>1605</v>
       </c>
       <c r="B1605" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1606">
@@ -21164,7 +21164,7 @@
         <v>1610</v>
       </c>
       <c r="B1610" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1611">
@@ -21172,7 +21172,7 @@
         <v>1611</v>
       </c>
       <c r="B1611" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1612">
@@ -21212,7 +21212,7 @@
         <v>1616</v>
       </c>
       <c r="B1616" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1617">
@@ -21236,7 +21236,7 @@
         <v>1619</v>
       </c>
       <c r="B1619" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620">
@@ -21244,7 +21244,7 @@
         <v>1620</v>
       </c>
       <c r="B1620" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621">
@@ -21252,7 +21252,7 @@
         <v>1621</v>
       </c>
       <c r="B1621" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622">
@@ -21300,7 +21300,7 @@
         <v>1627</v>
       </c>
       <c r="B1627" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1628">
@@ -21308,7 +21308,7 @@
         <v>1628</v>
       </c>
       <c r="B1628" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1629">
@@ -21316,7 +21316,7 @@
         <v>1629</v>
       </c>
       <c r="B1629" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1630">
@@ -21324,7 +21324,7 @@
         <v>1630</v>
       </c>
       <c r="B1630" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1631">
@@ -21332,7 +21332,7 @@
         <v>1631</v>
       </c>
       <c r="B1631" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1632">
@@ -21340,7 +21340,7 @@
         <v>1632</v>
       </c>
       <c r="B1632" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1633">
@@ -21348,7 +21348,7 @@
         <v>1633</v>
       </c>
       <c r="B1633" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1634">
@@ -21356,7 +21356,7 @@
         <v>1634</v>
       </c>
       <c r="B1634" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1635">
@@ -21364,7 +21364,7 @@
         <v>1635</v>
       </c>
       <c r="B1635" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1636">
@@ -21372,7 +21372,7 @@
         <v>1636</v>
       </c>
       <c r="B1636" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1637">
@@ -21380,7 +21380,7 @@
         <v>1637</v>
       </c>
       <c r="B1637" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1638">
@@ -21476,7 +21476,7 @@
         <v>1649</v>
       </c>
       <c r="B1649" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1650">
@@ -21484,7 +21484,7 @@
         <v>1650</v>
       </c>
       <c r="B1650" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1651">
@@ -21492,7 +21492,7 @@
         <v>1651</v>
       </c>
       <c r="B1651" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1652">
@@ -21500,7 +21500,7 @@
         <v>1652</v>
       </c>
       <c r="B1652" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1653">
@@ -21508,7 +21508,7 @@
         <v>1653</v>
       </c>
       <c r="B1653" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1654">
@@ -21516,7 +21516,7 @@
         <v>1654</v>
       </c>
       <c r="B1654" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1655">
@@ -21524,7 +21524,7 @@
         <v>1655</v>
       </c>
       <c r="B1655" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1656">
@@ -21532,7 +21532,7 @@
         <v>1656</v>
       </c>
       <c r="B1656" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1657">
@@ -21540,7 +21540,7 @@
         <v>1657</v>
       </c>
       <c r="B1657" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1658">
@@ -21548,7 +21548,7 @@
         <v>1658</v>
       </c>
       <c r="B1658" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1659">
@@ -21652,7 +21652,7 @@
         <v>1671</v>
       </c>
       <c r="B1671" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1672">
@@ -21660,7 +21660,7 @@
         <v>1672</v>
       </c>
       <c r="B1672" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1673">
@@ -21668,7 +21668,7 @@
         <v>1673</v>
       </c>
       <c r="B1673" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1674">
@@ -21676,7 +21676,7 @@
         <v>1674</v>
       </c>
       <c r="B1674" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1675">
@@ -21684,7 +21684,7 @@
         <v>1675</v>
       </c>
       <c r="B1675" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1676">
@@ -21692,7 +21692,7 @@
         <v>1676</v>
       </c>
       <c r="B1676" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1677">
@@ -21700,7 +21700,7 @@
         <v>1677</v>
       </c>
       <c r="B1677" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1678">
@@ -21708,7 +21708,7 @@
         <v>1678</v>
       </c>
       <c r="B1678" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1679">
@@ -21716,7 +21716,7 @@
         <v>1679</v>
       </c>
       <c r="B1679" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1680">
@@ -21756,7 +21756,7 @@
         <v>1684</v>
       </c>
       <c r="B1684" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1685">
@@ -21764,7 +21764,7 @@
         <v>1685</v>
       </c>
       <c r="B1685" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1686">
@@ -21804,7 +21804,7 @@
         <v>1690</v>
       </c>
       <c r="B1690" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1691">
@@ -21812,7 +21812,7 @@
         <v>1691</v>
       </c>
       <c r="B1691" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692">
@@ -21820,7 +21820,7 @@
         <v>1692</v>
       </c>
       <c r="B1692" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1693">
@@ -21828,7 +21828,7 @@
         <v>1693</v>
       </c>
       <c r="B1693" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1694">
@@ -21836,7 +21836,7 @@
         <v>1694</v>
       </c>
       <c r="B1694" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1695">
@@ -21876,7 +21876,7 @@
         <v>1699</v>
       </c>
       <c r="B1699" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1700">
@@ -21884,7 +21884,7 @@
         <v>1700</v>
       </c>
       <c r="B1700" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1701">
@@ -21892,7 +21892,7 @@
         <v>1701</v>
       </c>
       <c r="B1701" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702">
@@ -21900,7 +21900,7 @@
         <v>1702</v>
       </c>
       <c r="B1702" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1703">
@@ -21908,7 +21908,7 @@
         <v>1703</v>
       </c>
       <c r="B1703" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1704">
@@ -21916,7 +21916,7 @@
         <v>1704</v>
       </c>
       <c r="B1704" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1705">
@@ -21924,7 +21924,7 @@
         <v>1705</v>
       </c>
       <c r="B1705" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706">
@@ -21940,7 +21940,7 @@
         <v>1707</v>
       </c>
       <c r="B1707" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708">
@@ -21948,7 +21948,7 @@
         <v>1708</v>
       </c>
       <c r="B1708" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1709">
@@ -21956,7 +21956,7 @@
         <v>1709</v>
       </c>
       <c r="B1709" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1710">
@@ -21964,7 +21964,7 @@
         <v>1710</v>
       </c>
       <c r="B1710" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711">
@@ -21972,7 +21972,7 @@
         <v>1711</v>
       </c>
       <c r="B1711" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712">
@@ -21988,7 +21988,7 @@
         <v>1713</v>
       </c>
       <c r="B1713" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1714">
@@ -21996,7 +21996,7 @@
         <v>1714</v>
       </c>
       <c r="B1714" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715">
@@ -22004,7 +22004,7 @@
         <v>1715</v>
       </c>
       <c r="B1715" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1716">
@@ -22028,7 +22028,7 @@
         <v>1718</v>
       </c>
       <c r="B1718" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1719">
@@ -22052,7 +22052,7 @@
         <v>1721</v>
       </c>
       <c r="B1721" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1722">
@@ -22060,7 +22060,7 @@
         <v>1722</v>
       </c>
       <c r="B1722" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723">
@@ -22068,7 +22068,7 @@
         <v>1723</v>
       </c>
       <c r="B1723" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724">
@@ -22084,7 +22084,7 @@
         <v>1725</v>
       </c>
       <c r="B1725" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726">
@@ -22092,7 +22092,7 @@
         <v>1726</v>
       </c>
       <c r="B1726" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727">
@@ -22100,7 +22100,7 @@
         <v>1727</v>
       </c>
       <c r="B1727" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1728">
@@ -22108,7 +22108,7 @@
         <v>1728</v>
       </c>
       <c r="B1728" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729">
@@ -22116,7 +22116,7 @@
         <v>1729</v>
       </c>
       <c r="B1729" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -22140,7 +22140,7 @@
         <v>1732</v>
       </c>
       <c r="B1732" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -22148,7 +22148,7 @@
         <v>1733</v>
       </c>
       <c r="B1733" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734">
@@ -22156,7 +22156,7 @@
         <v>1734</v>
       </c>
       <c r="B1734" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735">
@@ -22164,7 +22164,7 @@
         <v>1735</v>
       </c>
       <c r="B1735" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736">
@@ -22188,7 +22188,7 @@
         <v>1738</v>
       </c>
       <c r="B1738" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1739">
@@ -22196,7 +22196,7 @@
         <v>1739</v>
       </c>
       <c r="B1739" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1740">
@@ -22204,7 +22204,7 @@
         <v>1740</v>
       </c>
       <c r="B1740" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1741">
@@ -22212,7 +22212,7 @@
         <v>1741</v>
       </c>
       <c r="B1741" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1742">
@@ -22244,7 +22244,7 @@
         <v>1745</v>
       </c>
       <c r="B1745" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1746">
@@ -22252,7 +22252,7 @@
         <v>1746</v>
       </c>
       <c r="B1746" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1747">
@@ -22260,7 +22260,7 @@
         <v>1747</v>
       </c>
       <c r="B1747" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1748">
@@ -22292,7 +22292,7 @@
         <v>1751</v>
       </c>
       <c r="B1751" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1752">
@@ -22300,7 +22300,7 @@
         <v>1752</v>
       </c>
       <c r="B1752" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1753">
@@ -22308,7 +22308,7 @@
         <v>1753</v>
       </c>
       <c r="B1753" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754">
@@ -22812,7 +22812,7 @@
         <v>1816</v>
       </c>
       <c r="B1816" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1817">
@@ -22820,7 +22820,7 @@
         <v>1817</v>
       </c>
       <c r="B1817" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1818">
@@ -22860,7 +22860,7 @@
         <v>1822</v>
       </c>
       <c r="B1822" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823">
@@ -22868,7 +22868,7 @@
         <v>1823</v>
       </c>
       <c r="B1823" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824">
@@ -22876,7 +22876,7 @@
         <v>1824</v>
       </c>
       <c r="B1824" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1825">
@@ -22908,7 +22908,7 @@
         <v>1828</v>
       </c>
       <c r="B1828" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829">
@@ -22916,7 +22916,7 @@
         <v>1829</v>
       </c>
       <c r="B1829" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1830">
@@ -22924,7 +22924,7 @@
         <v>1830</v>
       </c>
       <c r="B1830" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1831">
@@ -22932,7 +22932,7 @@
         <v>1831</v>
       </c>
       <c r="B1831" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1832">
@@ -22948,7 +22948,7 @@
         <v>1833</v>
       </c>
       <c r="B1833" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1834">
@@ -22956,7 +22956,7 @@
         <v>1834</v>
       </c>
       <c r="B1834" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1835">
@@ -22964,7 +22964,7 @@
         <v>1835</v>
       </c>
       <c r="B1835" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836">
@@ -22972,7 +22972,7 @@
         <v>1836</v>
       </c>
       <c r="B1836" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1837">
@@ -22980,7 +22980,7 @@
         <v>1837</v>
       </c>
       <c r="B1837" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1838">
@@ -22996,7 +22996,7 @@
         <v>1839</v>
       </c>
       <c r="B1839" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1840">
@@ -23004,7 +23004,7 @@
         <v>1840</v>
       </c>
       <c r="B1840" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1841">
@@ -23012,7 +23012,7 @@
         <v>1841</v>
       </c>
       <c r="B1841" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1842">
@@ -23020,7 +23020,7 @@
         <v>1842</v>
       </c>
       <c r="B1842" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1843">
@@ -23028,7 +23028,7 @@
         <v>1843</v>
       </c>
       <c r="B1843" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844">
@@ -23044,7 +23044,7 @@
         <v>1845</v>
       </c>
       <c r="B1845" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1846">
@@ -23052,7 +23052,7 @@
         <v>1846</v>
       </c>
       <c r="B1846" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1847">
@@ -23060,7 +23060,7 @@
         <v>1847</v>
       </c>
       <c r="B1847" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1848">
@@ -23068,7 +23068,7 @@
         <v>1848</v>
       </c>
       <c r="B1848" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1849">
@@ -23076,7 +23076,7 @@
         <v>1849</v>
       </c>
       <c r="B1849" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1850">
@@ -23100,7 +23100,7 @@
         <v>1852</v>
       </c>
       <c r="B1852" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853">
@@ -23108,7 +23108,7 @@
         <v>1853</v>
       </c>
       <c r="B1853" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1854">
@@ -23116,7 +23116,7 @@
         <v>1854</v>
       </c>
       <c r="B1854" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1855">
@@ -23124,7 +23124,7 @@
         <v>1855</v>
       </c>
       <c r="B1855" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1856">
@@ -23148,7 +23148,7 @@
         <v>1858</v>
       </c>
       <c r="B1858" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1859">
@@ -23156,7 +23156,7 @@
         <v>1859</v>
       </c>
       <c r="B1859" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1860">
@@ -23164,7 +23164,7 @@
         <v>1860</v>
       </c>
       <c r="B1860" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861">
@@ -23172,7 +23172,7 @@
         <v>1861</v>
       </c>
       <c r="B1861" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1862">
@@ -23196,7 +23196,7 @@
         <v>1864</v>
       </c>
       <c r="B1864" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865">
@@ -23204,7 +23204,7 @@
         <v>1865</v>
       </c>
       <c r="B1865" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866">
@@ -23212,7 +23212,7 @@
         <v>1866</v>
       </c>
       <c r="B1866" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1867">
@@ -23220,7 +23220,7 @@
         <v>1867</v>
       </c>
       <c r="B1867" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1868">
@@ -23252,7 +23252,7 @@
         <v>1871</v>
       </c>
       <c r="B1871" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1872">
@@ -23260,7 +23260,7 @@
         <v>1872</v>
       </c>
       <c r="B1872" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1873">
@@ -23268,7 +23268,7 @@
         <v>1873</v>
       </c>
       <c r="B1873" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1874">
@@ -23300,7 +23300,7 @@
         <v>1877</v>
       </c>
       <c r="B1877" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1878">
@@ -23308,7 +23308,7 @@
         <v>1878</v>
       </c>
       <c r="B1878" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1879">
@@ -23316,7 +23316,7 @@
         <v>1879</v>
       </c>
       <c r="B1879" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880">
@@ -23356,7 +23356,7 @@
         <v>1884</v>
       </c>
       <c r="B1884" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1885">
@@ -23364,7 +23364,7 @@
         <v>1885</v>
       </c>
       <c r="B1885" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886">
@@ -23476,7 +23476,7 @@
         <v>1899</v>
       </c>
       <c r="B1899" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1900">
@@ -23484,7 +23484,7 @@
         <v>1900</v>
       </c>
       <c r="B1900" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1901">
@@ -23492,7 +23492,7 @@
         <v>1901</v>
       </c>
       <c r="B1901" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1902">
@@ -23636,7 +23636,7 @@
         <v>1919</v>
       </c>
       <c r="B1919" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1920">
@@ -23644,7 +23644,7 @@
         <v>1920</v>
       </c>
       <c r="B1920" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1921">
@@ -23652,7 +23652,7 @@
         <v>1921</v>
       </c>
       <c r="B1921" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1922">
@@ -23660,7 +23660,7 @@
         <v>1922</v>
       </c>
       <c r="B1922" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1923">
@@ -23668,7 +23668,7 @@
         <v>1923</v>
       </c>
       <c r="B1923" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1924">
@@ -23676,7 +23676,7 @@
         <v>1924</v>
       </c>
       <c r="B1924" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1925">
@@ -23804,7 +23804,7 @@
         <v>1940</v>
       </c>
       <c r="B1940" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1941">
@@ -23812,7 +23812,7 @@
         <v>1941</v>
       </c>
       <c r="B1941" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1942">
@@ -23820,7 +23820,7 @@
         <v>1942</v>
       </c>
       <c r="B1942" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1943">
@@ -23828,7 +23828,7 @@
         <v>1943</v>
       </c>
       <c r="B1943" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1944">
@@ -23836,7 +23836,7 @@
         <v>1944</v>
       </c>
       <c r="B1944" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1945">
@@ -23844,7 +23844,7 @@
         <v>1945</v>
       </c>
       <c r="B1945" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1946">
@@ -23852,7 +23852,7 @@
         <v>1946</v>
       </c>
       <c r="B1946" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1947">
@@ -23860,7 +23860,7 @@
         <v>1947</v>
       </c>
       <c r="B1947" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1948">
@@ -23868,7 +23868,7 @@
         <v>1948</v>
       </c>
       <c r="B1948" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949">
@@ -23876,7 +23876,7 @@
         <v>1949</v>
       </c>
       <c r="B1949" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1950">
@@ -23916,7 +23916,7 @@
         <v>1954</v>
       </c>
       <c r="B1954" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1955">
@@ -23924,7 +23924,7 @@
         <v>1955</v>
       </c>
       <c r="B1955" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1956">
@@ -23932,7 +23932,7 @@
         <v>1956</v>
       </c>
       <c r="B1956" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1957">
@@ -23964,7 +23964,7 @@
         <v>1960</v>
       </c>
       <c r="B1960" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961">
@@ -23996,7 +23996,7 @@
         <v>1964</v>
       </c>
       <c r="B1964" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1965">
@@ -24004,7 +24004,7 @@
         <v>1965</v>
       </c>
       <c r="B1965" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1966">
@@ -24060,7 +24060,7 @@
         <v>1972</v>
       </c>
       <c r="B1972" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1973">
@@ -24068,7 +24068,7 @@
         <v>1973</v>
       </c>
       <c r="B1973" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1974">
@@ -24076,7 +24076,7 @@
         <v>1974</v>
       </c>
       <c r="B1974" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975">
@@ -24084,7 +24084,7 @@
         <v>1975</v>
       </c>
       <c r="B1975" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1976">
@@ -24108,7 +24108,7 @@
         <v>1978</v>
       </c>
       <c r="B1978" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1979">
@@ -24116,7 +24116,7 @@
         <v>1979</v>
       </c>
       <c r="B1979" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1980">
@@ -24124,7 +24124,7 @@
         <v>1980</v>
       </c>
       <c r="B1980" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1981">
@@ -24132,7 +24132,7 @@
         <v>1981</v>
       </c>
       <c r="B1981" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982">
@@ -24148,7 +24148,7 @@
         <v>1983</v>
       </c>
       <c r="B1983" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1984">
@@ -24188,7 +24188,7 @@
         <v>1988</v>
       </c>
       <c r="B1988" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1989">
@@ -24196,7 +24196,7 @@
         <v>1989</v>
       </c>
       <c r="B1989" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1990">
@@ -24220,7 +24220,7 @@
         <v>1992</v>
       </c>
       <c r="B1992" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1993">
@@ -24228,7 +24228,7 @@
         <v>1993</v>
       </c>
       <c r="B1993" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994">
@@ -24260,7 +24260,7 @@
         <v>1997</v>
       </c>
       <c r="B1997" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998">
@@ -24268,7 +24268,7 @@
         <v>1998</v>
       </c>
       <c r="B1998" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1999">
@@ -24276,7 +24276,7 @@
         <v>1999</v>
       </c>
       <c r="B1999" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2000">
@@ -24308,7 +24308,7 @@
         <v>2003</v>
       </c>
       <c r="B2003" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004">
@@ -24332,7 +24332,7 @@
         <v>2006</v>
       </c>
       <c r="B2006" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2007">
@@ -24340,7 +24340,7 @@
         <v>2007</v>
       </c>
       <c r="B2007" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2008">
@@ -24348,7 +24348,7 @@
         <v>2008</v>
       </c>
       <c r="B2008" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2009">
@@ -24356,7 +24356,7 @@
         <v>2009</v>
       </c>
       <c r="B2009" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2010">
@@ -24380,7 +24380,7 @@
         <v>2012</v>
       </c>
       <c r="B2012" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2013">
@@ -24388,7 +24388,7 @@
         <v>2013</v>
       </c>
       <c r="B2013" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2014">
@@ -24396,7 +24396,7 @@
         <v>2014</v>
       </c>
       <c r="B2014" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2015">
@@ -24492,7 +24492,7 @@
         <v>2026</v>
       </c>
       <c r="B2026" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2027">
@@ -24500,7 +24500,7 @@
         <v>2027</v>
       </c>
       <c r="B2027" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2028">
@@ -24508,7 +24508,7 @@
         <v>2028</v>
       </c>
       <c r="B2028" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2029">
@@ -24516,7 +24516,7 @@
         <v>2029</v>
       </c>
       <c r="B2029" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2030">
@@ -24524,7 +24524,7 @@
         <v>2030</v>
       </c>
       <c r="B2030" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2031">
@@ -24532,7 +24532,7 @@
         <v>2031</v>
       </c>
       <c r="B2031" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2032">
@@ -24540,7 +24540,7 @@
         <v>2032</v>
       </c>
       <c r="B2032" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2033">
@@ -24548,7 +24548,7 @@
         <v>2033</v>
       </c>
       <c r="B2033" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2034">
@@ -24556,7 +24556,7 @@
         <v>2034</v>
       </c>
       <c r="B2034" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2035">
@@ -24564,7 +24564,7 @@
         <v>2035</v>
       </c>
       <c r="B2035" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2036">
@@ -24660,7 +24660,7 @@
         <v>2047</v>
       </c>
       <c r="B2047" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2048">
@@ -24668,7 +24668,7 @@
         <v>2048</v>
       </c>
       <c r="B2048" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2049">
@@ -24676,7 +24676,7 @@
         <v>2049</v>
       </c>
       <c r="B2049" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2050">
@@ -24684,7 +24684,7 @@
         <v>2050</v>
       </c>
       <c r="B2050" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2051">
@@ -24692,7 +24692,7 @@
         <v>2051</v>
       </c>
       <c r="B2051" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2052">
@@ -24700,7 +24700,7 @@
         <v>2052</v>
       </c>
       <c r="B2052" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2053">
@@ -24708,7 +24708,7 @@
         <v>2053</v>
       </c>
       <c r="B2053" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2054">
@@ -24716,7 +24716,7 @@
         <v>2054</v>
       </c>
       <c r="B2054" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2055">
@@ -24724,7 +24724,7 @@
         <v>2055</v>
       </c>
       <c r="B2055" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2056">
@@ -24732,7 +24732,7 @@
         <v>2056</v>
       </c>
       <c r="B2056" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2057">
@@ -24740,7 +24740,7 @@
         <v>2057</v>
       </c>
       <c r="B2057" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2058">
@@ -24836,7 +24836,7 @@
         <v>2069</v>
       </c>
       <c r="B2069" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2070">
@@ -24844,7 +24844,7 @@
         <v>2070</v>
       </c>
       <c r="B2070" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2071">
@@ -24852,7 +24852,7 @@
         <v>2071</v>
       </c>
       <c r="B2071" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2072">
@@ -24860,7 +24860,7 @@
         <v>2072</v>
       </c>
       <c r="B2072" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2073">
@@ -24868,7 +24868,7 @@
         <v>2073</v>
       </c>
       <c r="B2073" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2074">
@@ -24876,7 +24876,7 @@
         <v>2074</v>
       </c>
       <c r="B2074" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2075">
@@ -24884,7 +24884,7 @@
         <v>2075</v>
       </c>
       <c r="B2075" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2076">
@@ -24892,7 +24892,7 @@
         <v>2076</v>
       </c>
       <c r="B2076" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2077">
@@ -24900,7 +24900,7 @@
         <v>2077</v>
       </c>
       <c r="B2077" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2078">
@@ -24908,7 +24908,7 @@
         <v>2078</v>
       </c>
       <c r="B2078" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2079">
@@ -24916,7 +24916,7 @@
         <v>2079</v>
       </c>
       <c r="B2079" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2080">
@@ -24932,7 +24932,7 @@
         <v>2081</v>
       </c>
       <c r="B2081" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2082">
@@ -24980,7 +24980,7 @@
         <v>2087</v>
       </c>
       <c r="B2087" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2088">
@@ -24988,7 +24988,7 @@
         <v>2088</v>
       </c>
       <c r="B2088" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2089">
@@ -24996,7 +24996,7 @@
         <v>2089</v>
       </c>
       <c r="B2089" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2090">
@@ -25012,7 +25012,7 @@
         <v>2091</v>
       </c>
       <c r="B2091" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2092">
@@ -25052,7 +25052,7 @@
         <v>2096</v>
       </c>
       <c r="B2096" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2097">
@@ -25060,7 +25060,7 @@
         <v>2097</v>
       </c>
       <c r="B2097" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2098">
@@ -25092,7 +25092,7 @@
         <v>2101</v>
       </c>
       <c r="B2101" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2102">
@@ -25116,7 +25116,7 @@
         <v>2104</v>
       </c>
       <c r="B2104" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2105">
@@ -25124,7 +25124,7 @@
         <v>2105</v>
       </c>
       <c r="B2105" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106">
@@ -25132,7 +25132,7 @@
         <v>2106</v>
       </c>
       <c r="B2106" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2107">
@@ -25140,7 +25140,7 @@
         <v>2107</v>
       </c>
       <c r="B2107" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2108">
@@ -25164,7 +25164,7 @@
         <v>2110</v>
       </c>
       <c r="B2110" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2111">
@@ -25172,7 +25172,7 @@
         <v>2111</v>
       </c>
       <c r="B2111" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2112">
@@ -25180,7 +25180,7 @@
         <v>2112</v>
       </c>
       <c r="B2112" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2113">
@@ -25196,7 +25196,7 @@
         <v>2114</v>
       </c>
       <c r="B2114" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2115">
@@ -25204,7 +25204,7 @@
         <v>2115</v>
       </c>
       <c r="B2115" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2116">
@@ -25212,7 +25212,7 @@
         <v>2116</v>
       </c>
       <c r="B2116" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2117">
@@ -25244,7 +25244,7 @@
         <v>2120</v>
       </c>
       <c r="B2120" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2121">
@@ -25252,7 +25252,7 @@
         <v>2121</v>
       </c>
       <c r="B2121" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2122">
@@ -25260,7 +25260,7 @@
         <v>2122</v>
       </c>
       <c r="B2122" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2123">
@@ -25268,7 +25268,7 @@
         <v>2123</v>
       </c>
       <c r="B2123" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2124">
@@ -25276,7 +25276,7 @@
         <v>2124</v>
       </c>
       <c r="B2124" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2125">
@@ -25284,7 +25284,7 @@
         <v>2125</v>
       </c>
       <c r="B2125" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2126">
@@ -25316,7 +25316,7 @@
         <v>2129</v>
       </c>
       <c r="B2129" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2130">
@@ -25324,7 +25324,7 @@
         <v>2130</v>
       </c>
       <c r="B2130" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2131">
@@ -25332,7 +25332,7 @@
         <v>2131</v>
       </c>
       <c r="B2131" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2132">
@@ -25356,7 +25356,7 @@
         <v>2134</v>
       </c>
       <c r="B2134" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2135">
@@ -25364,7 +25364,7 @@
         <v>2135</v>
       </c>
       <c r="B2135" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2136">
@@ -25388,7 +25388,7 @@
         <v>2138</v>
       </c>
       <c r="B2138" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2139">
@@ -25396,7 +25396,7 @@
         <v>2139</v>
       </c>
       <c r="B2139" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2140">
@@ -25404,7 +25404,7 @@
         <v>2140</v>
       </c>
       <c r="B2140" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2141">
@@ -25412,7 +25412,7 @@
         <v>2141</v>
       </c>
       <c r="B2141" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2142">
@@ -25540,7 +25540,7 @@
         <v>2157</v>
       </c>
       <c r="B2157" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2158">
@@ -25548,7 +25548,7 @@
         <v>2158</v>
       </c>
       <c r="B2158" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2159">
@@ -25556,7 +25556,7 @@
         <v>2159</v>
       </c>
       <c r="B2159" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2160">
@@ -25564,7 +25564,7 @@
         <v>2160</v>
       </c>
       <c r="B2160" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2161">
@@ -25572,7 +25572,7 @@
         <v>2161</v>
       </c>
       <c r="B2161" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2162">
@@ -25580,7 +25580,7 @@
         <v>2162</v>
       </c>
       <c r="B2162" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2163">
@@ -25588,7 +25588,7 @@
         <v>2163</v>
       </c>
       <c r="B2163" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2164">
@@ -25596,7 +25596,7 @@
         <v>2164</v>
       </c>
       <c r="B2164" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2165">
@@ -25716,7 +25716,7 @@
         <v>2179</v>
       </c>
       <c r="B2179" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2180">
@@ -25724,7 +25724,7 @@
         <v>2180</v>
       </c>
       <c r="B2180" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2181">
@@ -25732,7 +25732,7 @@
         <v>2181</v>
       </c>
       <c r="B2181" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2182">
@@ -25740,7 +25740,7 @@
         <v>2182</v>
       </c>
       <c r="B2182" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2183">
@@ -25748,7 +25748,7 @@
         <v>2183</v>
       </c>
       <c r="B2183" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2184">
@@ -25756,7 +25756,7 @@
         <v>2184</v>
       </c>
       <c r="B2184" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2185">
@@ -25900,7 +25900,7 @@
         <v>2202</v>
       </c>
       <c r="B2202" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2203">
@@ -25908,7 +25908,7 @@
         <v>2203</v>
       </c>
       <c r="B2203" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2204">
@@ -25916,7 +25916,7 @@
         <v>2204</v>
       </c>
       <c r="B2204" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2205">
@@ -25932,7 +25932,7 @@
         <v>2206</v>
       </c>
       <c r="B2206" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2207">
@@ -25988,7 +25988,7 @@
         <v>2213</v>
       </c>
       <c r="B2213" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2214">
@@ -25996,7 +25996,7 @@
         <v>2214</v>
       </c>
       <c r="B2214" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215">
@@ -26036,7 +26036,7 @@
         <v>2219</v>
       </c>
       <c r="B2219" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2220">
@@ -26044,7 +26044,7 @@
         <v>2220</v>
       </c>
       <c r="B2220" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2221">
@@ -26052,7 +26052,7 @@
         <v>2221</v>
       </c>
       <c r="B2221" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222">
@@ -26084,7 +26084,7 @@
         <v>2225</v>
       </c>
       <c r="B2225" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2226">
@@ -26092,7 +26092,7 @@
         <v>2226</v>
       </c>
       <c r="B2226" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2227">
@@ -26100,7 +26100,7 @@
         <v>2227</v>
       </c>
       <c r="B2227" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2228">
@@ -26132,7 +26132,7 @@
         <v>2231</v>
       </c>
       <c r="B2231" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232">
@@ -26140,7 +26140,7 @@
         <v>2232</v>
       </c>
       <c r="B2232" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233">
@@ -26148,7 +26148,7 @@
         <v>2233</v>
       </c>
       <c r="B2233" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234">
@@ -26180,7 +26180,7 @@
         <v>2237</v>
       </c>
       <c r="B2237" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238">
@@ -26188,7 +26188,7 @@
         <v>2238</v>
       </c>
       <c r="B2238" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239">
@@ -26196,7 +26196,7 @@
         <v>2239</v>
       </c>
       <c r="B2239" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240">
@@ -26228,7 +26228,7 @@
         <v>2243</v>
       </c>
       <c r="B2243" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2244">
@@ -26236,7 +26236,7 @@
         <v>2244</v>
       </c>
       <c r="B2244" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2245">
@@ -26244,7 +26244,7 @@
         <v>2245</v>
       </c>
       <c r="B2245" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246">
@@ -26276,7 +26276,7 @@
         <v>2249</v>
       </c>
       <c r="B2249" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250">
@@ -26284,7 +26284,7 @@
         <v>2250</v>
       </c>
       <c r="B2250" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251">
@@ -26292,7 +26292,7 @@
         <v>2251</v>
       </c>
       <c r="B2251" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2252">
@@ -26324,7 +26324,7 @@
         <v>2255</v>
       </c>
       <c r="B2255" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256">
@@ -26332,7 +26332,7 @@
         <v>2256</v>
       </c>
       <c r="B2256" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257">
@@ -26340,7 +26340,7 @@
         <v>2257</v>
       </c>
       <c r="B2257" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258">
@@ -26380,7 +26380,7 @@
         <v>2262</v>
       </c>
       <c r="B2262" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263">
@@ -26388,7 +26388,7 @@
         <v>2263</v>
       </c>
       <c r="B2263" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2264">
@@ -26428,7 +26428,7 @@
         <v>2268</v>
       </c>
       <c r="B2268" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2269">
@@ -26436,7 +26436,7 @@
         <v>2269</v>
       </c>
       <c r="B2269" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270">
@@ -27092,7 +27092,7 @@
         <v>2351</v>
       </c>
       <c r="B2351" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2352">
@@ -27100,7 +27100,7 @@
         <v>2352</v>
       </c>
       <c r="B2352" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2353">
@@ -27108,7 +27108,7 @@
         <v>2353</v>
       </c>
       <c r="B2353" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2354">
@@ -27140,7 +27140,7 @@
         <v>2357</v>
       </c>
       <c r="B2357" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358">
@@ -27148,7 +27148,7 @@
         <v>2358</v>
       </c>
       <c r="B2358" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359">
@@ -27156,7 +27156,7 @@
         <v>2359</v>
       </c>
       <c r="B2359" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360">
@@ -27188,7 +27188,7 @@
         <v>2363</v>
       </c>
       <c r="B2363" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364">
@@ -27196,7 +27196,7 @@
         <v>2364</v>
       </c>
       <c r="B2364" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365">
@@ -27204,7 +27204,7 @@
         <v>2365</v>
       </c>
       <c r="B2365" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366">
@@ -27236,7 +27236,7 @@
         <v>2369</v>
       </c>
       <c r="B2369" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370">
@@ -27244,7 +27244,7 @@
         <v>2370</v>
       </c>
       <c r="B2370" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371">
@@ -27252,7 +27252,7 @@
         <v>2371</v>
       </c>
       <c r="B2371" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2372">
@@ -27284,7 +27284,7 @@
         <v>2375</v>
       </c>
       <c r="B2375" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2376">
@@ -27292,7 +27292,7 @@
         <v>2376</v>
       </c>
       <c r="B2376" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2377">
@@ -27300,7 +27300,7 @@
         <v>2377</v>
       </c>
       <c r="B2377" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2378">
@@ -27340,7 +27340,7 @@
         <v>2382</v>
       </c>
       <c r="B2382" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2383">
@@ -27356,7 +27356,7 @@
         <v>2384</v>
       </c>
       <c r="B2384" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2385">
@@ -27388,7 +27388,7 @@
         <v>2388</v>
       </c>
       <c r="B2388" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2389">
@@ -27396,7 +27396,7 @@
         <v>2389</v>
       </c>
       <c r="B2389" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2390">
@@ -27436,7 +27436,7 @@
         <v>2394</v>
       </c>
       <c r="B2394" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2395">
@@ -27444,7 +27444,7 @@
         <v>2395</v>
       </c>
       <c r="B2395" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2396">
@@ -27516,7 +27516,7 @@
         <v>2404</v>
       </c>
       <c r="B2404" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2405">
@@ -27524,7 +27524,7 @@
         <v>2405</v>
       </c>
       <c r="B2405" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2406">
@@ -27532,7 +27532,7 @@
         <v>2406</v>
       </c>
       <c r="B2406" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2407">
@@ -27540,7 +27540,7 @@
         <v>2407</v>
       </c>
       <c r="B2407" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2408">
@@ -27548,7 +27548,7 @@
         <v>2408</v>
       </c>
       <c r="B2408" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2409">
@@ -27692,7 +27692,7 @@
         <v>2426</v>
       </c>
       <c r="B2426" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2427">
@@ -27700,7 +27700,7 @@
         <v>2427</v>
       </c>
       <c r="B2427" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2428">
@@ -27708,7 +27708,7 @@
         <v>2428</v>
       </c>
       <c r="B2428" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2429">
@@ -27716,7 +27716,7 @@
         <v>2429</v>
       </c>
       <c r="B2429" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2430">
@@ -27724,7 +27724,7 @@
         <v>2430</v>
       </c>
       <c r="B2430" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2431">
@@ -27732,7 +27732,7 @@
         <v>2431</v>
       </c>
       <c r="B2431" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2432">
@@ -27860,7 +27860,7 @@
         <v>2447</v>
       </c>
       <c r="B2447" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2448">
@@ -27868,7 +27868,7 @@
         <v>2448</v>
       </c>
       <c r="B2448" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2449">
@@ -27876,7 +27876,7 @@
         <v>2449</v>
       </c>
       <c r="B2449" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2450">
@@ -27884,7 +27884,7 @@
         <v>2450</v>
       </c>
       <c r="B2450" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2451">
@@ -27892,7 +27892,7 @@
         <v>2451</v>
       </c>
       <c r="B2451" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2452">
@@ -27900,7 +27900,7 @@
         <v>2452</v>
       </c>
       <c r="B2452" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2453">
@@ -27908,7 +27908,7 @@
         <v>2453</v>
       </c>
       <c r="B2453" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2454">
@@ -27916,7 +27916,7 @@
         <v>2454</v>
       </c>
       <c r="B2454" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2455">
@@ -28028,7 +28028,7 @@
         <v>2468</v>
       </c>
       <c r="B2468" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2469">
@@ -28036,7 +28036,7 @@
         <v>2469</v>
       </c>
       <c r="B2469" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2470">
@@ -28044,7 +28044,7 @@
         <v>2470</v>
       </c>
       <c r="B2470" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2471">
@@ -28052,7 +28052,7 @@
         <v>2471</v>
       </c>
       <c r="B2471" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2472">
@@ -28060,7 +28060,7 @@
         <v>2472</v>
       </c>
       <c r="B2472" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2473">
@@ -28068,7 +28068,7 @@
         <v>2473</v>
       </c>
       <c r="B2473" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2474">
@@ -28076,7 +28076,7 @@
         <v>2474</v>
       </c>
       <c r="B2474" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2475">
@@ -28084,7 +28084,7 @@
         <v>2475</v>
       </c>
       <c r="B2475" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2476">
@@ -28092,7 +28092,7 @@
         <v>2476</v>
       </c>
       <c r="B2476" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2477">
@@ -28156,7 +28156,7 @@
         <v>2484</v>
       </c>
       <c r="B2484" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485">
@@ -28164,7 +28164,7 @@
         <v>2485</v>
       </c>
       <c r="B2485" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486">
@@ -28220,7 +28220,7 @@
         <v>2492</v>
       </c>
       <c r="B2492" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2493">
@@ -28228,7 +28228,7 @@
         <v>2493</v>
       </c>
       <c r="B2493" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2494">
@@ -28236,7 +28236,7 @@
         <v>2494</v>
       </c>
       <c r="B2494" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2495">
@@ -28244,7 +28244,7 @@
         <v>2495</v>
       </c>
       <c r="B2495" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2496">
@@ -28268,7 +28268,7 @@
         <v>2498</v>
       </c>
       <c r="B2498" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2499">
@@ -28300,7 +28300,7 @@
         <v>2502</v>
       </c>
       <c r="B2502" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2503">
@@ -28308,7 +28308,7 @@
         <v>2503</v>
       </c>
       <c r="B2503" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504">
@@ -28348,7 +28348,7 @@
         <v>2508</v>
       </c>
       <c r="B2508" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509">
@@ -28356,7 +28356,7 @@
         <v>2509</v>
       </c>
       <c r="B2509" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2510">
@@ -28372,7 +28372,7 @@
         <v>2511</v>
       </c>
       <c r="B2511" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2512">
@@ -28380,7 +28380,7 @@
         <v>2512</v>
       </c>
       <c r="B2512" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2513">
@@ -28388,7 +28388,7 @@
         <v>2513</v>
       </c>
       <c r="B2513" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2514">
@@ -28412,7 +28412,7 @@
         <v>2516</v>
       </c>
       <c r="B2516" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2517">
@@ -28420,7 +28420,7 @@
         <v>2517</v>
       </c>
       <c r="B2517" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2518">
@@ -28428,7 +28428,7 @@
         <v>2518</v>
       </c>
       <c r="B2518" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2519">
@@ -28436,7 +28436,7 @@
         <v>2519</v>
       </c>
       <c r="B2519" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2520">
@@ -28444,7 +28444,7 @@
         <v>2520</v>
       </c>
       <c r="B2520" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2521">
@@ -28452,7 +28452,7 @@
         <v>2521</v>
       </c>
       <c r="B2521" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2522">
@@ -28548,7 +28548,7 @@
         <v>2533</v>
       </c>
       <c r="B2533" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2534">
@@ -28556,7 +28556,7 @@
         <v>2534</v>
       </c>
       <c r="B2534" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2535">
@@ -28564,7 +28564,7 @@
         <v>2535</v>
       </c>
       <c r="B2535" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2536">
@@ -28572,7 +28572,7 @@
         <v>2536</v>
       </c>
       <c r="B2536" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2537">
@@ -28580,7 +28580,7 @@
         <v>2537</v>
       </c>
       <c r="B2537" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2538">
@@ -28588,7 +28588,7 @@
         <v>2538</v>
       </c>
       <c r="B2538" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2539">
@@ -28596,7 +28596,7 @@
         <v>2539</v>
       </c>
       <c r="B2539" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2540">
@@ -28604,7 +28604,7 @@
         <v>2540</v>
       </c>
       <c r="B2540" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2541">
@@ -28612,7 +28612,7 @@
         <v>2541</v>
       </c>
       <c r="B2541" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2542">
@@ -28716,7 +28716,7 @@
         <v>2554</v>
       </c>
       <c r="B2554" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2555">
@@ -28724,7 +28724,7 @@
         <v>2555</v>
       </c>
       <c r="B2555" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2556">
@@ -28732,7 +28732,7 @@
         <v>2556</v>
       </c>
       <c r="B2556" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2557">
@@ -28740,7 +28740,7 @@
         <v>2557</v>
       </c>
       <c r="B2557" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2558">
@@ -28748,7 +28748,7 @@
         <v>2558</v>
       </c>
       <c r="B2558" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2559">
@@ -28756,7 +28756,7 @@
         <v>2559</v>
       </c>
       <c r="B2559" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2560">
@@ -28764,7 +28764,7 @@
         <v>2560</v>
       </c>
       <c r="B2560" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2561">
@@ -28772,7 +28772,7 @@
         <v>2561</v>
       </c>
       <c r="B2561" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2562">
@@ -28780,7 +28780,7 @@
         <v>2562</v>
       </c>
       <c r="B2562" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2563">
@@ -28788,7 +28788,7 @@
         <v>2563</v>
       </c>
       <c r="B2563" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2564">
@@ -28892,7 +28892,7 @@
         <v>2576</v>
       </c>
       <c r="B2576" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2577">
@@ -28900,7 +28900,7 @@
         <v>2577</v>
       </c>
       <c r="B2577" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2578">
@@ -28908,7 +28908,7 @@
         <v>2578</v>
       </c>
       <c r="B2578" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2579">
@@ -28916,7 +28916,7 @@
         <v>2579</v>
       </c>
       <c r="B2579" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2580">
@@ -28924,7 +28924,7 @@
         <v>2580</v>
       </c>
       <c r="B2580" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2581">
@@ -28932,7 +28932,7 @@
         <v>2581</v>
       </c>
       <c r="B2581" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2582">
@@ -28940,7 +28940,7 @@
         <v>2582</v>
       </c>
       <c r="B2582" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2583">
@@ -28948,7 +28948,7 @@
         <v>2583</v>
       </c>
       <c r="B2583" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2584">
@@ -28956,7 +28956,7 @@
         <v>2584</v>
       </c>
       <c r="B2584" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2585">
@@ -29068,7 +29068,7 @@
         <v>2598</v>
       </c>
       <c r="B2598" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2599">
@@ -29076,7 +29076,7 @@
         <v>2599</v>
       </c>
       <c r="B2599" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2600">
@@ -29084,7 +29084,7 @@
         <v>2600</v>
       </c>
       <c r="B2600" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2601">
@@ -29092,7 +29092,7 @@
         <v>2601</v>
       </c>
       <c r="B2601" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2602">
@@ -29100,7 +29100,7 @@
         <v>2602</v>
       </c>
       <c r="B2602" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2603">
@@ -29108,7 +29108,7 @@
         <v>2603</v>
       </c>
       <c r="B2603" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2604">
@@ -29116,7 +29116,7 @@
         <v>2604</v>
       </c>
       <c r="B2604" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2605">
@@ -29124,7 +29124,7 @@
         <v>2605</v>
       </c>
       <c r="B2605" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2606">
@@ -29244,7 +29244,7 @@
         <v>2620</v>
       </c>
       <c r="B2620" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2621">
@@ -29252,7 +29252,7 @@
         <v>2621</v>
       </c>
       <c r="B2621" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2622">
@@ -29276,7 +29276,7 @@
         <v>2624</v>
       </c>
       <c r="B2624" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2625">
@@ -29284,7 +29284,7 @@
         <v>2625</v>
       </c>
       <c r="B2625" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2626">
@@ -29292,7 +29292,7 @@
         <v>2626</v>
       </c>
       <c r="B2626" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2627">
@@ -29308,7 +29308,7 @@
         <v>2628</v>
       </c>
       <c r="B2628" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2629">
@@ -29316,7 +29316,7 @@
         <v>2629</v>
       </c>
       <c r="B2629" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2630">
@@ -29356,7 +29356,7 @@
         <v>2634</v>
       </c>
       <c r="B2634" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2635">
@@ -29364,7 +29364,7 @@
         <v>2635</v>
       </c>
       <c r="B2635" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2636">
@@ -29412,7 +29412,7 @@
         <v>2641</v>
       </c>
       <c r="B2641" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2642">
@@ -29428,7 +29428,7 @@
         <v>2643</v>
       </c>
       <c r="B2643" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2644">
@@ -29436,7 +29436,7 @@
         <v>2644</v>
       </c>
       <c r="B2644" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2645">
@@ -29444,7 +29444,7 @@
         <v>2645</v>
       </c>
       <c r="B2645" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2646">
